--- a/Dev/PythonDev/DataRecommenderSystem/TasksInterviewVisitor.xlsx
+++ b/Dev/PythonDev/DataRecommenderSystem/TasksInterviewVisitor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Workspace\AI\Thesis\FinalYearProject\FYPWAAR\Dev\PythonDev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Workspace\AI\Thesis\FinalYearProject\FYPWAAR\Dev\PythonDev\DataRecommenderSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C487AD52-76BE-4C20-839B-5DCA1B599FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C762C580-7C59-4306-89B6-4CE329FA7CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="2460" windowWidth="12240" windowHeight="6330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>0011010</t>
   </si>
@@ -85,19 +85,22 @@
   </si>
   <si>
     <t>0001010</t>
-  </si>
-  <si>
-    <t>Task11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -406,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -425,7 +428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -436,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -444,10 +447,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -455,10 +458,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -466,10 +469,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -477,10 +480,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -488,10 +491,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -499,10 +502,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -510,10 +513,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -521,21 +524,11 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>